--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1467.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1467.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.308243420985433</v>
+        <v>1.142674565315247</v>
       </c>
       <c r="B1">
-        <v>1.639216965311292</v>
+        <v>3.000122547149658</v>
       </c>
       <c r="C1">
-        <v>2.382607443916282</v>
+        <v>3.634899139404297</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.774166107177734</v>
       </c>
       <c r="E1">
-        <v>1.102787127461846</v>
+        <v>1.203986406326294</v>
       </c>
     </row>
   </sheetData>
